--- a/FACE REND/Resources/FORM_FACE_REND.xlsx
+++ b/FACE REND/Resources/FORM_FACE_REND.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marylou.delacerna\Documents\Projects\Auto-Projects\SLA\FACE REND\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marylou.delacerna\Documents\Projects\Auto-Projects\Solutions-Tracker\FACE REND\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8268F31D-E9FC-4DB5-907E-A1E229FF93F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D451A8-DA7D-4047-B095-9C4E8C13F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19880" yWindow="-7710" windowWidth="28800" windowHeight="15500" activeTab="2" xr2:uid="{641C40FE-1C70-4854-B815-ADB73DBD8C9F}"/>
+    <workbookView xWindow="21170" yWindow="-8210" windowWidth="28800" windowHeight="15500" activeTab="2" xr2:uid="{641C40FE-1C70-4854-B815-ADB73DBD8C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Service Classification" sheetId="1" r:id="rId1"/>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45F8AA8-088B-42D6-94EB-CF34A509C99A}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A45052-92E4-433A-AB75-440835C16B38}">
   <dimension ref="A1:H1081"/>
   <sheetViews>
-    <sheetView topLeftCell="A768" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L803" sqref="L803"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FACE REND/Resources/FORM_FACE_REND.xlsx
+++ b/FACE REND/Resources/FORM_FACE_REND.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marylou.delacerna\Documents\Projects\Auto-Projects\Solutions-Tracker\FACE REND\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D451A8-DA7D-4047-B095-9C4E8C13F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CADB59B-EDAE-4BF3-8C22-8034D58AA212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21170" yWindow="-8210" windowWidth="28800" windowHeight="15500" activeTab="2" xr2:uid="{641C40FE-1C70-4854-B815-ADB73DBD8C9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{641C40FE-1C70-4854-B815-ADB73DBD8C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Service Classification" sheetId="1" r:id="rId1"/>
     <sheet name="OLD FACE REND" sheetId="2" r:id="rId2"/>
-    <sheet name="FACE REND" sheetId="3" r:id="rId3"/>
+    <sheet name="FACE REND" sheetId="8" r:id="rId3"/>
     <sheet name="FACE REND FULL LIST" sheetId="5" r:id="rId4"/>
+    <sheet name="FACE REND (2)" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FACE REND'!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FACE REND'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'FACE REND (2)'!$A$1:$F$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'FACE REND FULL LIST'!$A$1:$F$1081</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8785" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9366" uniqueCount="60">
   <si>
     <t>Model Code(s)</t>
   </si>
@@ -219,20 +221,17 @@
     <t>PSD</t>
   </si>
   <si>
-    <t>JPED</t>
-  </si>
-  <si>
     <t>Product Image Asset</t>
   </si>
   <si>
-    <t>Aston</t>
+    <t>JPEG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +281,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,8 +332,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -430,13 +460,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -468,6 +554,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,7 +925,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>29</v>
@@ -1118,26 +1238,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45F8AA8-088B-42D6-94EB-CF34A509C99A}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A692AC0-CDED-4AEB-BDAE-62557B73AA61}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1151,180 +1269,40 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>10</v>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5" xr:uid="{D45F8AA8-088B-42D6-94EB-CF34A509C99A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F5">
-      <sortCondition ref="C1:C5"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F2" xr:uid="{D45F8AA8-088B-42D6-94EB-CF34A509C99A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1334,7 +1312,7 @@
   <dimension ref="A1:H1081"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H617" sqref="A617:H617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>30</v>
@@ -1409,7 +1387,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>30</v>
@@ -1435,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>30</v>
@@ -1461,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>30</v>
@@ -1487,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>30</v>
@@ -1513,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>30</v>
@@ -1539,7 +1517,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>30</v>
@@ -1565,7 +1543,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>30</v>
@@ -1591,7 +1569,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>30</v>
@@ -1617,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>30</v>
@@ -1643,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>30</v>
@@ -1669,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>30</v>
@@ -1695,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>30</v>
@@ -1721,7 +1699,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>30</v>
@@ -1747,7 +1725,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>30</v>
@@ -1773,7 +1751,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>30</v>
@@ -1799,7 +1777,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>30</v>
@@ -1825,7 +1803,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>30</v>
@@ -1851,7 +1829,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>30</v>
@@ -1877,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>30</v>
@@ -1903,7 +1881,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>30</v>
@@ -1929,7 +1907,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>30</v>
@@ -1955,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>30</v>
@@ -1981,7 +1959,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>30</v>
@@ -2007,7 +1985,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>30</v>
@@ -2033,7 +2011,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>30</v>
@@ -2059,7 +2037,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>30</v>
@@ -2085,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>30</v>
@@ -2111,7 +2089,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>30</v>
@@ -2137,7 +2115,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>30</v>
@@ -2163,7 +2141,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>30</v>
@@ -2189,7 +2167,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>30</v>
@@ -2215,7 +2193,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>30</v>
@@ -2241,7 +2219,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>30</v>
@@ -2267,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>30</v>
@@ -2293,7 +2271,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>30</v>
@@ -2319,7 +2297,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>30</v>
@@ -2345,7 +2323,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>30</v>
@@ -2371,7 +2349,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>30</v>
@@ -2397,7 +2375,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>30</v>
@@ -2423,7 +2401,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>30</v>
@@ -2449,7 +2427,7 @@
         <v>18</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>30</v>
@@ -2475,7 +2453,7 @@
         <v>18</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>30</v>
@@ -2501,7 +2479,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>30</v>
@@ -2527,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>30</v>
@@ -2553,7 +2531,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>30</v>
@@ -2579,7 +2557,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>30</v>
@@ -2605,7 +2583,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>30</v>
@@ -2631,7 +2609,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>30</v>
@@ -2657,7 +2635,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>30</v>
@@ -2683,7 +2661,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>30</v>
@@ -2709,7 +2687,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>30</v>
@@ -2735,7 +2713,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>30</v>
@@ -2761,7 +2739,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>30</v>
@@ -2787,7 +2765,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>30</v>
@@ -2813,7 +2791,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>30</v>
@@ -2839,7 +2817,7 @@
         <v>18</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>30</v>
@@ -2865,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>30</v>
@@ -2891,7 +2869,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>30</v>
@@ -2917,7 +2895,7 @@
         <v>18</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>30</v>
@@ -2943,7 +2921,7 @@
         <v>18</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>30</v>
@@ -2969,7 +2947,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>30</v>
@@ -2995,7 +2973,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>30</v>
@@ -3021,7 +2999,7 @@
         <v>18</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>30</v>
@@ -3047,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>30</v>
@@ -3073,7 +3051,7 @@
         <v>18</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>30</v>
@@ -3099,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>30</v>
@@ -3125,7 +3103,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>30</v>
@@ -3151,7 +3129,7 @@
         <v>18</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>30</v>
@@ -3177,7 +3155,7 @@
         <v>18</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>30</v>
@@ -3203,7 +3181,7 @@
         <v>18</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>30</v>
@@ -3229,7 +3207,7 @@
         <v>18</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>30</v>
@@ -3255,7 +3233,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>30</v>
@@ -3281,7 +3259,7 @@
         <v>18</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>30</v>
@@ -3307,7 +3285,7 @@
         <v>18</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>30</v>
@@ -3333,7 +3311,7 @@
         <v>18</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>30</v>
@@ -3359,7 +3337,7 @@
         <v>18</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>30</v>
@@ -3385,7 +3363,7 @@
         <v>18</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>30</v>
@@ -3411,7 +3389,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>30</v>
@@ -3437,7 +3415,7 @@
         <v>18</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>30</v>
@@ -3463,7 +3441,7 @@
         <v>18</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>30</v>
@@ -3489,7 +3467,7 @@
         <v>18</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>30</v>
@@ -3515,7 +3493,7 @@
         <v>18</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>30</v>
@@ -3541,7 +3519,7 @@
         <v>18</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>30</v>
@@ -3567,7 +3545,7 @@
         <v>18</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>30</v>
@@ -3593,7 +3571,7 @@
         <v>18</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>30</v>
@@ -3619,7 +3597,7 @@
         <v>18</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>30</v>
@@ -3645,7 +3623,7 @@
         <v>18</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>30</v>
@@ -3671,7 +3649,7 @@
         <v>18</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>30</v>
@@ -3697,7 +3675,7 @@
         <v>18</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>30</v>
@@ -3723,7 +3701,7 @@
         <v>18</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>30</v>
@@ -3749,7 +3727,7 @@
         <v>18</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>30</v>
@@ -3775,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>30</v>
@@ -3801,7 +3779,7 @@
         <v>18</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>30</v>
@@ -3827,7 +3805,7 @@
         <v>18</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>30</v>
@@ -3853,7 +3831,7 @@
         <v>18</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>30</v>
@@ -3879,7 +3857,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>30</v>
@@ -3905,7 +3883,7 @@
         <v>18</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>30</v>
@@ -3931,7 +3909,7 @@
         <v>18</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>30</v>
@@ -3957,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>30</v>
@@ -3983,7 +3961,7 @@
         <v>18</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>30</v>
@@ -4009,7 +3987,7 @@
         <v>18</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>30</v>
@@ -4035,7 +4013,7 @@
         <v>18</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>30</v>
@@ -4061,7 +4039,7 @@
         <v>18</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>30</v>
@@ -4087,7 +4065,7 @@
         <v>18</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>30</v>
@@ -4113,7 +4091,7 @@
         <v>18</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>30</v>
@@ -4139,7 +4117,7 @@
         <v>18</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>30</v>
@@ -4165,7 +4143,7 @@
         <v>18</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>30</v>
@@ -4191,7 +4169,7 @@
         <v>18</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>30</v>
@@ -4217,7 +4195,7 @@
         <v>18</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>30</v>
@@ -4243,7 +4221,7 @@
         <v>18</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>30</v>
@@ -4269,7 +4247,7 @@
         <v>18</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>30</v>
@@ -4295,7 +4273,7 @@
         <v>18</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>30</v>
@@ -4321,7 +4299,7 @@
         <v>18</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>30</v>
@@ -4347,7 +4325,7 @@
         <v>18</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>30</v>
@@ -4373,7 +4351,7 @@
         <v>18</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>30</v>
@@ -4399,7 +4377,7 @@
         <v>18</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>30</v>
@@ -4425,7 +4403,7 @@
         <v>18</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>30</v>
@@ -4451,7 +4429,7 @@
         <v>18</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>30</v>
@@ -4477,7 +4455,7 @@
         <v>18</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>30</v>
@@ -4503,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>30</v>
@@ -4529,7 +4507,7 @@
         <v>18</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>30</v>
@@ -4555,7 +4533,7 @@
         <v>18</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>30</v>
@@ -4581,7 +4559,7 @@
         <v>18</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>30</v>
@@ -4607,7 +4585,7 @@
         <v>18</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>30</v>
@@ -4633,7 +4611,7 @@
         <v>18</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>30</v>
@@ -4659,7 +4637,7 @@
         <v>18</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>30</v>
@@ -4685,7 +4663,7 @@
         <v>18</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>30</v>
@@ -4711,7 +4689,7 @@
         <v>18</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>30</v>
@@ -4737,7 +4715,7 @@
         <v>18</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>30</v>
@@ -4763,7 +4741,7 @@
         <v>18</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>30</v>
@@ -4789,7 +4767,7 @@
         <v>18</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>30</v>
@@ -4815,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>30</v>
@@ -4841,7 +4819,7 @@
         <v>18</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>30</v>
@@ -4867,7 +4845,7 @@
         <v>18</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>30</v>
@@ -4893,7 +4871,7 @@
         <v>18</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>30</v>
@@ -4919,7 +4897,7 @@
         <v>18</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>30</v>
@@ -4945,7 +4923,7 @@
         <v>18</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>30</v>
@@ -4971,7 +4949,7 @@
         <v>18</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>30</v>
@@ -4997,7 +4975,7 @@
         <v>18</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>30</v>
@@ -5023,7 +5001,7 @@
         <v>18</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>16</v>
@@ -5049,7 +5027,7 @@
         <v>18</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>16</v>
@@ -5075,7 +5053,7 @@
         <v>18</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>16</v>
@@ -5101,7 +5079,7 @@
         <v>18</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>16</v>
@@ -5127,7 +5105,7 @@
         <v>18</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>16</v>
@@ -5153,7 +5131,7 @@
         <v>18</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>16</v>
@@ -5179,7 +5157,7 @@
         <v>18</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>16</v>
@@ -5205,7 +5183,7 @@
         <v>18</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>16</v>
@@ -5231,7 +5209,7 @@
         <v>18</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>16</v>
@@ -5257,7 +5235,7 @@
         <v>18</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>16</v>
@@ -5283,7 +5261,7 @@
         <v>18</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>16</v>
@@ -5309,7 +5287,7 @@
         <v>18</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>16</v>
@@ -5335,7 +5313,7 @@
         <v>18</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>16</v>
@@ -5361,7 +5339,7 @@
         <v>18</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>16</v>
@@ -5387,7 +5365,7 @@
         <v>18</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>16</v>
@@ -5413,7 +5391,7 @@
         <v>18</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>16</v>
@@ -5439,7 +5417,7 @@
         <v>18</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>16</v>
@@ -5465,7 +5443,7 @@
         <v>18</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>16</v>
@@ -5491,7 +5469,7 @@
         <v>18</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>16</v>
@@ -5517,7 +5495,7 @@
         <v>18</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>16</v>
@@ -5543,7 +5521,7 @@
         <v>18</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>16</v>
@@ -5569,7 +5547,7 @@
         <v>18</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>16</v>
@@ -5595,7 +5573,7 @@
         <v>18</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>16</v>
@@ -5621,7 +5599,7 @@
         <v>18</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>16</v>
@@ -5647,7 +5625,7 @@
         <v>18</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>16</v>
@@ -5673,7 +5651,7 @@
         <v>18</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>16</v>
@@ -5699,7 +5677,7 @@
         <v>18</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>16</v>
@@ -5725,7 +5703,7 @@
         <v>18</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>16</v>
@@ -5751,7 +5729,7 @@
         <v>18</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>16</v>
@@ -5777,7 +5755,7 @@
         <v>18</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>16</v>
@@ -5803,7 +5781,7 @@
         <v>18</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>16</v>
@@ -5829,7 +5807,7 @@
         <v>18</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>16</v>
@@ -5855,7 +5833,7 @@
         <v>18</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>16</v>
@@ -5881,7 +5859,7 @@
         <v>18</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>16</v>
@@ -5907,7 +5885,7 @@
         <v>18</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>16</v>
@@ -5933,7 +5911,7 @@
         <v>18</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>16</v>
@@ -5959,7 +5937,7 @@
         <v>18</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>16</v>
@@ -5985,7 +5963,7 @@
         <v>18</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>16</v>
@@ -6011,7 +5989,7 @@
         <v>18</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>16</v>
@@ -6037,7 +6015,7 @@
         <v>18</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>16</v>
@@ -6063,7 +6041,7 @@
         <v>18</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>16</v>
@@ -6089,7 +6067,7 @@
         <v>18</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>16</v>
@@ -6115,7 +6093,7 @@
         <v>18</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>16</v>
@@ -6141,7 +6119,7 @@
         <v>18</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>16</v>
@@ -6167,7 +6145,7 @@
         <v>18</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>16</v>
@@ -6193,7 +6171,7 @@
         <v>18</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>16</v>
@@ -6219,7 +6197,7 @@
         <v>18</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>16</v>
@@ -6245,7 +6223,7 @@
         <v>18</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>16</v>
@@ -6271,7 +6249,7 @@
         <v>18</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>16</v>
@@ -6297,7 +6275,7 @@
         <v>18</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>16</v>
@@ -6323,7 +6301,7 @@
         <v>18</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>16</v>
@@ -6349,7 +6327,7 @@
         <v>18</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>16</v>
@@ -6375,7 +6353,7 @@
         <v>18</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>16</v>
@@ -6401,7 +6379,7 @@
         <v>18</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>16</v>
@@ -6427,7 +6405,7 @@
         <v>18</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>16</v>
@@ -6453,7 +6431,7 @@
         <v>18</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>16</v>
@@ -6479,7 +6457,7 @@
         <v>18</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>16</v>
@@ -6505,7 +6483,7 @@
         <v>18</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>16</v>
@@ -6531,7 +6509,7 @@
         <v>18</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>16</v>
@@ -6557,7 +6535,7 @@
         <v>18</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>16</v>
@@ -6583,7 +6561,7 @@
         <v>18</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>16</v>
@@ -6609,7 +6587,7 @@
         <v>18</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>16</v>
@@ -6635,7 +6613,7 @@
         <v>18</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>16</v>
@@ -6661,7 +6639,7 @@
         <v>18</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>16</v>
@@ -6687,7 +6665,7 @@
         <v>18</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>16</v>
@@ -6713,7 +6691,7 @@
         <v>18</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>16</v>
@@ -6739,7 +6717,7 @@
         <v>18</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>16</v>
@@ -6765,7 +6743,7 @@
         <v>18</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>16</v>
@@ -6791,7 +6769,7 @@
         <v>18</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>16</v>
@@ -6817,7 +6795,7 @@
         <v>18</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>16</v>
@@ -6843,7 +6821,7 @@
         <v>18</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D212" s="10" t="s">
         <v>16</v>
@@ -6869,7 +6847,7 @@
         <v>18</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>16</v>
@@ -6895,7 +6873,7 @@
         <v>18</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>16</v>
@@ -6921,7 +6899,7 @@
         <v>18</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>16</v>
@@ -6947,7 +6925,7 @@
         <v>18</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>16</v>
@@ -6973,7 +6951,7 @@
         <v>18</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>16</v>
@@ -6999,7 +6977,7 @@
         <v>18</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>16</v>
@@ -7025,7 +7003,7 @@
         <v>18</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>16</v>
@@ -7051,7 +7029,7 @@
         <v>18</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>16</v>
@@ -7077,7 +7055,7 @@
         <v>18</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>16</v>
@@ -7103,7 +7081,7 @@
         <v>18</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>16</v>
@@ -7129,7 +7107,7 @@
         <v>18</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>16</v>
@@ -7155,7 +7133,7 @@
         <v>18</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>16</v>
@@ -7181,7 +7159,7 @@
         <v>18</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>16</v>
@@ -7207,7 +7185,7 @@
         <v>18</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>16</v>
@@ -7233,7 +7211,7 @@
         <v>18</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>16</v>
@@ -7259,7 +7237,7 @@
         <v>18</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>16</v>
@@ -7285,7 +7263,7 @@
         <v>18</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>16</v>
@@ -7311,7 +7289,7 @@
         <v>18</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>16</v>
@@ -7337,7 +7315,7 @@
         <v>18</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>16</v>
@@ -7363,7 +7341,7 @@
         <v>18</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>16</v>
@@ -7389,7 +7367,7 @@
         <v>18</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D233" s="10" t="s">
         <v>16</v>
@@ -7415,7 +7393,7 @@
         <v>18</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D234" s="10" t="s">
         <v>16</v>
@@ -7441,7 +7419,7 @@
         <v>18</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>16</v>
@@ -7467,7 +7445,7 @@
         <v>18</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D236" s="10" t="s">
         <v>16</v>
@@ -7493,7 +7471,7 @@
         <v>18</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D237" s="10" t="s">
         <v>16</v>
@@ -7519,7 +7497,7 @@
         <v>18</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>16</v>
@@ -7545,7 +7523,7 @@
         <v>18</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>16</v>
@@ -7571,7 +7549,7 @@
         <v>18</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>16</v>
@@ -7597,7 +7575,7 @@
         <v>18</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D241" s="10" t="s">
         <v>16</v>
@@ -7623,7 +7601,7 @@
         <v>18</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>16</v>
@@ -7649,7 +7627,7 @@
         <v>18</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D243" s="10" t="s">
         <v>16</v>
@@ -7675,7 +7653,7 @@
         <v>18</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D244" s="10" t="s">
         <v>16</v>
@@ -7701,7 +7679,7 @@
         <v>18</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D245" s="10" t="s">
         <v>16</v>
@@ -7727,7 +7705,7 @@
         <v>18</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D246" s="10" t="s">
         <v>16</v>
@@ -7753,7 +7731,7 @@
         <v>18</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D247" s="10" t="s">
         <v>16</v>
@@ -7779,7 +7757,7 @@
         <v>18</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D248" s="10" t="s">
         <v>16</v>
@@ -7805,7 +7783,7 @@
         <v>18</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>16</v>
@@ -7831,7 +7809,7 @@
         <v>18</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D250" s="10" t="s">
         <v>16</v>
@@ -7857,7 +7835,7 @@
         <v>18</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>16</v>
@@ -7883,7 +7861,7 @@
         <v>18</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>16</v>
@@ -7909,7 +7887,7 @@
         <v>18</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>16</v>
@@ -7935,7 +7913,7 @@
         <v>18</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>16</v>
@@ -7961,7 +7939,7 @@
         <v>18</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>16</v>
@@ -7987,7 +7965,7 @@
         <v>18</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>16</v>
@@ -8013,7 +7991,7 @@
         <v>18</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>16</v>
@@ -8039,7 +8017,7 @@
         <v>18</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>16</v>
@@ -8065,7 +8043,7 @@
         <v>18</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D259" s="10" t="s">
         <v>16</v>
@@ -8091,7 +8069,7 @@
         <v>18</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>16</v>
@@ -8117,7 +8095,7 @@
         <v>18</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D261" s="10" t="s">
         <v>16</v>
@@ -8143,7 +8121,7 @@
         <v>18</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D262" s="10" t="s">
         <v>16</v>
@@ -8169,7 +8147,7 @@
         <v>18</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D263" s="10" t="s">
         <v>16</v>
@@ -8195,7 +8173,7 @@
         <v>18</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D264" s="10" t="s">
         <v>16</v>
@@ -8221,7 +8199,7 @@
         <v>18</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D265" s="10" t="s">
         <v>16</v>
@@ -8247,7 +8225,7 @@
         <v>18</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>16</v>
@@ -8273,7 +8251,7 @@
         <v>18</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D267" s="10" t="s">
         <v>16</v>
@@ -8299,7 +8277,7 @@
         <v>18</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D268" s="10" t="s">
         <v>16</v>
@@ -8325,7 +8303,7 @@
         <v>18</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D269" s="10" t="s">
         <v>16</v>
@@ -8351,7 +8329,7 @@
         <v>18</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D270" s="10" t="s">
         <v>16</v>
@@ -8377,7 +8355,7 @@
         <v>18</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D271" s="10" t="s">
         <v>16</v>
@@ -15490,7 +15468,7 @@
         <v>48</v>
       </c>
       <c r="H544" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.3">
@@ -15568,7 +15546,7 @@
         <v>51</v>
       </c>
       <c r="H547" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.3">
@@ -15646,7 +15624,7 @@
         <v>54</v>
       </c>
       <c r="H550" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="551" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15750,7 +15728,7 @@
         <v>48</v>
       </c>
       <c r="H554" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.3">
@@ -15828,7 +15806,7 @@
         <v>51</v>
       </c>
       <c r="H557" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.3">
@@ -15906,7 +15884,7 @@
         <v>54</v>
       </c>
       <c r="H560" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="561" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16010,7 +15988,7 @@
         <v>48</v>
       </c>
       <c r="H564" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.3">
@@ -16088,7 +16066,7 @@
         <v>51</v>
       </c>
       <c r="H567" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.3">
@@ -16166,7 +16144,7 @@
         <v>54</v>
       </c>
       <c r="H570" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="571" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16270,7 +16248,7 @@
         <v>48</v>
       </c>
       <c r="H574" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.3">
@@ -16348,7 +16326,7 @@
         <v>51</v>
       </c>
       <c r="H577" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.3">
@@ -16426,7 +16404,7 @@
         <v>54</v>
       </c>
       <c r="H580" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="581" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16530,7 +16508,7 @@
         <v>48</v>
       </c>
       <c r="H584" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.3">
@@ -16608,7 +16586,7 @@
         <v>51</v>
       </c>
       <c r="H587" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.3">
@@ -16686,7 +16664,7 @@
         <v>54</v>
       </c>
       <c r="H590" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="591" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16790,7 +16768,7 @@
         <v>48</v>
       </c>
       <c r="H594" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.3">
@@ -16868,7 +16846,7 @@
         <v>51</v>
       </c>
       <c r="H597" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.3">
@@ -16946,7 +16924,7 @@
         <v>54</v>
       </c>
       <c r="H600" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="601" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17050,7 +17028,7 @@
         <v>48</v>
       </c>
       <c r="H604" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.3">
@@ -17128,7 +17106,7 @@
         <v>51</v>
       </c>
       <c r="H607" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.3">
@@ -17206,7 +17184,7 @@
         <v>54</v>
       </c>
       <c r="H610" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="611" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17310,7 +17288,7 @@
         <v>48</v>
       </c>
       <c r="H614" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.3">
@@ -17388,7 +17366,7 @@
         <v>51</v>
       </c>
       <c r="H617" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
@@ -17466,7 +17444,7 @@
         <v>54</v>
       </c>
       <c r="H620" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="621" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17570,7 +17548,7 @@
         <v>48</v>
       </c>
       <c r="H624" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.3">
@@ -17648,7 +17626,7 @@
         <v>51</v>
       </c>
       <c r="H627" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.3">
@@ -17726,7 +17704,7 @@
         <v>54</v>
       </c>
       <c r="H630" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="631" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17830,7 +17808,7 @@
         <v>48</v>
       </c>
       <c r="H634" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.3">
@@ -17908,7 +17886,7 @@
         <v>51</v>
       </c>
       <c r="H637" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.3">
@@ -17986,7 +17964,7 @@
         <v>54</v>
       </c>
       <c r="H640" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="641" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18090,7 +18068,7 @@
         <v>48</v>
       </c>
       <c r="H644" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.3">
@@ -18168,7 +18146,7 @@
         <v>51</v>
       </c>
       <c r="H647" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.3">
@@ -18246,7 +18224,7 @@
         <v>54</v>
       </c>
       <c r="H650" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="651" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18350,7 +18328,7 @@
         <v>48</v>
       </c>
       <c r="H654" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.3">
@@ -18428,7 +18406,7 @@
         <v>51</v>
       </c>
       <c r="H657" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.3">
@@ -18506,7 +18484,7 @@
         <v>54</v>
       </c>
       <c r="H660" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="661" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18610,7 +18588,7 @@
         <v>48</v>
       </c>
       <c r="H664" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.3">
@@ -18688,7 +18666,7 @@
         <v>51</v>
       </c>
       <c r="H667" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.3">
@@ -18766,7 +18744,7 @@
         <v>54</v>
       </c>
       <c r="H670" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="671" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18870,7 +18848,7 @@
         <v>48</v>
       </c>
       <c r="H674" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.3">
@@ -18948,7 +18926,7 @@
         <v>51</v>
       </c>
       <c r="H677" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.3">
@@ -19026,7 +19004,7 @@
         <v>54</v>
       </c>
       <c r="H680" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="681" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19130,7 +19108,7 @@
         <v>48</v>
       </c>
       <c r="H684" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.3">
@@ -19208,7 +19186,7 @@
         <v>51</v>
       </c>
       <c r="H687" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.3">
@@ -19286,7 +19264,7 @@
         <v>54</v>
       </c>
       <c r="H690" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="691" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19390,7 +19368,7 @@
         <v>48</v>
       </c>
       <c r="H694" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.3">
@@ -19468,7 +19446,7 @@
         <v>51</v>
       </c>
       <c r="H697" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.3">
@@ -19546,7 +19524,7 @@
         <v>54</v>
       </c>
       <c r="H700" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="701" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19650,7 +19628,7 @@
         <v>48</v>
       </c>
       <c r="H704" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.3">
@@ -19728,7 +19706,7 @@
         <v>51</v>
       </c>
       <c r="H707" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.3">
@@ -19806,7 +19784,7 @@
         <v>54</v>
       </c>
       <c r="H710" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="711" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19910,7 +19888,7 @@
         <v>48</v>
       </c>
       <c r="H714" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.3">
@@ -19988,7 +19966,7 @@
         <v>51</v>
       </c>
       <c r="H717" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.3">
@@ -20066,7 +20044,7 @@
         <v>54</v>
       </c>
       <c r="H720" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="721" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20170,7 +20148,7 @@
         <v>48</v>
       </c>
       <c r="H724" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.3">
@@ -20248,7 +20226,7 @@
         <v>51</v>
       </c>
       <c r="H727" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.3">
@@ -20326,7 +20304,7 @@
         <v>54</v>
       </c>
       <c r="H730" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="731" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20430,7 +20408,7 @@
         <v>48</v>
       </c>
       <c r="H734" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.3">
@@ -20508,7 +20486,7 @@
         <v>51</v>
       </c>
       <c r="H737" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.3">
@@ -20586,7 +20564,7 @@
         <v>54</v>
       </c>
       <c r="H740" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="741" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20690,7 +20668,7 @@
         <v>48</v>
       </c>
       <c r="H744" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.3">
@@ -20768,7 +20746,7 @@
         <v>51</v>
       </c>
       <c r="H747" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.3">
@@ -20846,7 +20824,7 @@
         <v>54</v>
       </c>
       <c r="H750" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="751" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20950,7 +20928,7 @@
         <v>48</v>
       </c>
       <c r="H754" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.3">
@@ -21028,7 +21006,7 @@
         <v>51</v>
       </c>
       <c r="H757" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.3">
@@ -21106,7 +21084,7 @@
         <v>54</v>
       </c>
       <c r="H760" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="761" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21210,7 +21188,7 @@
         <v>48</v>
       </c>
       <c r="H764" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.3">
@@ -21288,7 +21266,7 @@
         <v>51</v>
       </c>
       <c r="H767" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.3">
@@ -21366,7 +21344,7 @@
         <v>54</v>
       </c>
       <c r="H770" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="771" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21470,7 +21448,7 @@
         <v>48</v>
       </c>
       <c r="H774" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.3">
@@ -21548,7 +21526,7 @@
         <v>51</v>
       </c>
       <c r="H777" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.3">
@@ -21626,7 +21604,7 @@
         <v>54</v>
       </c>
       <c r="H780" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="781" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21730,7 +21708,7 @@
         <v>48</v>
       </c>
       <c r="H784" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.3">
@@ -21808,7 +21786,7 @@
         <v>51</v>
       </c>
       <c r="H787" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.3">
@@ -21886,7 +21864,7 @@
         <v>54</v>
       </c>
       <c r="H790" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="791" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21990,7 +21968,7 @@
         <v>48</v>
       </c>
       <c r="H794" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.3">
@@ -22068,7 +22046,7 @@
         <v>51</v>
       </c>
       <c r="H797" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.3">
@@ -22146,7 +22124,7 @@
         <v>54</v>
       </c>
       <c r="H800" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="801" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22250,7 +22228,7 @@
         <v>48</v>
       </c>
       <c r="H804" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.3">
@@ -22328,7 +22306,7 @@
         <v>51</v>
       </c>
       <c r="H807" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.3">
@@ -22406,7 +22384,7 @@
         <v>54</v>
       </c>
       <c r="H810" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="811" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -29463,4 +29441,2075 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA5ADB1-EE3C-4056-BDDB-0C496FE78D04}">
+  <dimension ref="A1:G89"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F89" xr:uid="{D45F8AA8-088B-42D6-94EB-CF34A509C99A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>